--- a/Data/EC/NIT-9008617758.xlsx
+++ b/Data/EC/NIT-9008617758.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B307C37-DFDF-4A05-8A4F-18E914140810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7669DDB5-9E1C-4653-8AD2-648CE588C771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4462EE3A-2D5D-43B6-9238-2D416016D023}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37111981-85D6-48EE-8D38-4AC0D42F393B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>YINA MARCELA MANGONES GOEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
   </si>
   <si>
     <t>2506</t>
@@ -194,9 +197,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -209,7 +210,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +412,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +456,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B032D9-6E8E-FE9C-26AE-9AD5439195E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16778EB-C3DC-5160-25AD-104581DB2738}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,8 +863,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8734F267-2BDC-4B6A-93C5-C24D9A488E68}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482E5F05-78CB-4A16-94F6-D1755F11AE9C}">
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -885,7 +888,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -930,7 +933,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -962,12 +965,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>700362</v>
+        <v>871182</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,17 +981,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1015,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1064,7 +1067,7 @@
         <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1087,7 +1090,7 @@
         <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1110,7 +1113,7 @@
         <v>56940</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1130,10 +1133,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>5694</v>
+        <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1144,19 +1147,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F21" s="18">
-        <v>56940</v>
+        <v>5694</v>
       </c>
       <c r="G21" s="18">
-        <v>1423500</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1167,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>56940</v>
       </c>
       <c r="G22" s="18">
-        <v>2800000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1190,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>56940</v>
       </c>
       <c r="G23" s="18">
-        <v>2800000</v>
+        <v>1423500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1213,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
       </c>
       <c r="G24" s="18">
-        <v>2800000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1236,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
-        <v>5694</v>
+        <v>56940</v>
       </c>
       <c r="G25" s="18">
-        <v>2800000</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1259,13 +1262,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1282,16 +1285,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F27" s="18">
-        <v>56940</v>
+        <v>5694</v>
       </c>
       <c r="G27" s="18">
         <v>1423500</v>
@@ -1305,13 +1308,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>56940</v>
@@ -1328,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
         <v>56940</v>
@@ -1347,56 +1350,125 @@
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="D30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F32" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="24">
         <v>5694</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G33" s="24">
         <v>1423500</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="C39" s="32"/>
+      <c r="H39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
